--- a/biology/Zoologie/Acantherpestes/Acantherpestes.xlsx
+++ b/biology/Zoologie/Acantherpestes/Acantherpestes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acantherpestes est un genre éteint de diplopodes (communément appelés « mille-pattes ») appartenant à la famille fossile des Euphoberiidae, ayant vécu au Carbonifère supérieur (Moscovien), il y a environ entre 315 et 307 Ma (millions d'années).
 Les Acantherpestes fossilisés ont été découverts en Belgique, en République tchèque, au Royaume-uni et aux États-Unis.  
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus grands Acantherpestes pouvaient atteindre une longueur de 50 centimètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus grands Acantherpestes pouvaient atteindre une longueur de 50 centimètres.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (27 novembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (27 novembre 2015) :
 Acantherpestes brodiei Scudder 1882
 Acantherpestes foveolatus Fritsch 1899
 Acantherpestes gigas Fritsch 1895
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Meek &amp; Worthen, 1868 : Part II. Palaeontology. Geological Survey of Illinois, vol. 3, p. 291-565.</t>
         </is>
